--- a/biology/Médecine/Orviétan/Orviétan.xlsx
+++ b/biology/Médecine/Orviétan/Orviétan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Orvi%C3%A9tan</t>
+          <t>Orviétan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’orviétan est un faux antidote des XVIIe et XVIIIe siècles.
 Médicament de rencontre resté fameux dans les fastes du charlatanisme médical, l’orviétan était dû, dit-on, à l’imagination d’un certain Jérôme Ferrante, natif d’Orvieto, d’où il tira son nom, et depuis son origine jusque vers la fin du XVIIIe siècle, il fut apporté en France en 1647 par un autre natif d’Orvieto du nom de Christoforo Contugi, qui se fit d’abord appeler Lorvietano, puis Lorviétan ou l’Orviétan. L’apothicaire Pierre Pomel écrit en 1694 dans son Histoire des drogues : « L’orviétan étoit commun à Rome depuis longtemps, et c’est de là que le faisoient venir les épiciers avant que le sieur Contugi eût obtenu du Roi la permission de le débiter publiquement. »
@@ -503,7 +515,7 @@
 Vérole,
 Descente,
 Rougeole.
-Ô grande puissance de l’orviétan[1] ! »
+Ô grande puissance de l’orviétan ! »
 L’orviétan fut ensuite débité en France, dans les villes, dans les bourgs et dans les villages, par des tabarins de bas étage, des bateleurs effrontés, charlatans, saltimbanques, marchands de drogues prétendues médicales vendant leurs produits avec accompagnement de lazzis, de farces burlesques, de parades et de coups de grosse caisse, qui s’installaient sur les places publiques, dans les foires et dans les carrefours, et qui, attirant les badauds par le moyen de leur spectacle grossier, aidaient ainsi la vente de leur spécifique incomparable.
 De là est venu qu’on a donné, par la suite, le nom de « marchand d’orviétan » aux charlatans de toutes sortes.
 </t>
